--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2331718.173521088</v>
+        <v>-2334572.034545111</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15967305.1852449</v>
+        <v>15967305.18524491</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.169590399801</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>317.6287092208522</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>128.2377354064896</v>
+        <v>128.2377354064898</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>15.87281545754661</v>
+        <v>15.87281545754701</v>
       </c>
       <c r="S2" t="n">
-        <v>15.03062682105145</v>
+        <v>160.4109796955706</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>213.7579980667566</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1750011386098</v>
+        <v>105.4189269589802</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>183.6980281233702</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>136.20218283636</v>
       </c>
       <c r="H3" t="n">
-        <v>101.2125574482281</v>
+        <v>101.2125574482282</v>
       </c>
       <c r="I3" t="n">
-        <v>50.10069221203889</v>
+        <v>50.10069221203901</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>29.29498884168652</v>
+        <v>29.29498884168673</v>
       </c>
       <c r="S3" t="n">
         <v>150.4833865678177</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.7198496000514</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.5751254082581</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>134.2696499661857</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>205.1494778123736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>309.0221817699182</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.16959039980099</v>
+        <v>13.169590399801</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>128.2377354064898</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>15.87281545754661</v>
+        <v>15.87281545754701</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>213.7579980667565</v>
+        <v>213.7579980667566</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1750011386098</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>185.2814444465798</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -990,10 +990,10 @@
         <v>136.20218283636</v>
       </c>
       <c r="H6" t="n">
-        <v>101.2125574482281</v>
+        <v>101.2125574482282</v>
       </c>
       <c r="I6" t="n">
-        <v>50.10069221203889</v>
+        <v>50.10069221203901</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>29.29498884168652</v>
+        <v>29.29498884168673</v>
       </c>
       <c r="S6" t="n">
         <v>150.4833865678177</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>25.7094354839959</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.038371165852979</v>
+        <v>6.038371165853221</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>134.2696499661859</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>116.0389143554254</v>
       </c>
       <c r="T7" t="n">
-        <v>23.85909203830538</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2668371914149</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -1184,7 +1184,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>93.19819252389726</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>10.27678347325625</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>71.77252468053845</v>
+        <v>112.3845446528137</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>105.11626575513</v>
+        <v>1.508245380440106e-12</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1576,22 +1576,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>190.5970158126797</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>220.9731342426603</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>81.27859867330054</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>20.22544352992953</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>35.41770597126623</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>80.70399854267949</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>80.08971311158706</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2725,13 +2725,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002298</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652651</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545303</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3266,13 +3266,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>920.7759732281268</v>
+        <v>909.8240881483666</v>
       </c>
       <c r="C2" t="n">
-        <v>920.7759732281268</v>
+        <v>540.8615712079549</v>
       </c>
       <c r="D2" t="n">
-        <v>920.7759732281268</v>
+        <v>182.5958726012044</v>
       </c>
       <c r="E2" t="n">
-        <v>920.7759732281268</v>
+        <v>182.5958726012044</v>
       </c>
       <c r="F2" t="n">
-        <v>920.7759732281268</v>
+        <v>182.5958726012044</v>
       </c>
       <c r="G2" t="n">
-        <v>503.4329526222671</v>
+        <v>182.5958726012044</v>
       </c>
       <c r="H2" t="n">
-        <v>182.5958726012041</v>
+        <v>182.5958726012044</v>
       </c>
       <c r="I2" t="n">
-        <v>53.06280653404291</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="J2" t="n">
-        <v>220.4707231032598</v>
+        <v>220.4707231032592</v>
       </c>
       <c r="K2" t="n">
-        <v>592.1165982626352</v>
+        <v>592.1165982626338</v>
       </c>
       <c r="L2" t="n">
-        <v>743.1540106415799</v>
+        <v>1105.45279711634</v>
       </c>
       <c r="M2" t="n">
-        <v>1330.945986635732</v>
+        <v>1248.226374952587</v>
       </c>
       <c r="N2" t="n">
-        <v>1913.617053773247</v>
+        <v>1536.624874323132</v>
       </c>
       <c r="O2" t="n">
-        <v>2041.637002584231</v>
+        <v>2041.637002584233</v>
       </c>
       <c r="P2" t="n">
-        <v>2434.978787279024</v>
+        <v>2434.978787279026</v>
       </c>
       <c r="Q2" t="n">
         <v>2653.140326702146</v>
@@ -4355,25 +4355,25 @@
         <v>2637.107179775331</v>
       </c>
       <c r="S2" t="n">
-        <v>2621.924728440935</v>
+        <v>2475.075887153542</v>
       </c>
       <c r="T2" t="n">
-        <v>2621.924728440935</v>
+        <v>2259.158717389142</v>
       </c>
       <c r="U2" t="n">
-        <v>2368.212606078703</v>
+        <v>2152.674952784111</v>
       </c>
       <c r="V2" t="n">
-        <v>2037.149718735132</v>
+        <v>1821.612065440541</v>
       </c>
       <c r="W2" t="n">
-        <v>1684.381063465018</v>
+        <v>1468.843410170427</v>
       </c>
       <c r="X2" t="n">
-        <v>1310.915305203938</v>
+        <v>1095.377651909347</v>
       </c>
       <c r="Y2" t="n">
-        <v>920.7759732281268</v>
+        <v>909.8240881483666</v>
       </c>
     </row>
     <row r="3">
@@ -4398,40 +4398,40 @@
         <v>343.4824353185146</v>
       </c>
       <c r="G3" t="n">
-        <v>205.904472857545</v>
+        <v>205.9044728575451</v>
       </c>
       <c r="H3" t="n">
         <v>103.6695663441833</v>
       </c>
       <c r="I3" t="n">
-        <v>53.06280653404291</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="J3" t="n">
-        <v>159.076435100624</v>
+        <v>159.0764351006237</v>
       </c>
       <c r="K3" t="n">
-        <v>466.8914550380428</v>
+        <v>466.8914550380419</v>
       </c>
       <c r="L3" t="n">
-        <v>942.1911323635632</v>
+        <v>942.1911323635616</v>
       </c>
       <c r="M3" t="n">
-        <v>1087.77464589279</v>
+        <v>1087.774645892787</v>
       </c>
       <c r="N3" t="n">
-        <v>1726.168917343736</v>
+        <v>1523.513158571518</v>
       </c>
       <c r="O3" t="n">
-        <v>2041.103518253643</v>
+        <v>2041.103518253644</v>
       </c>
       <c r="P3" t="n">
-        <v>2439.51234579331</v>
+        <v>2439.512345793311</v>
       </c>
       <c r="Q3" t="n">
         <v>2653.140326702146</v>
       </c>
       <c r="R3" t="n">
-        <v>2623.54942888226</v>
+        <v>2623.549428882261</v>
       </c>
       <c r="S3" t="n">
         <v>2471.546008106687</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203.1794459463786</v>
+        <v>472.9910263874557</v>
       </c>
       <c r="C4" t="n">
-        <v>203.1794459463786</v>
+        <v>472.9910263874557</v>
       </c>
       <c r="D4" t="n">
-        <v>53.06280653404291</v>
+        <v>472.9910263874557</v>
       </c>
       <c r="E4" t="n">
-        <v>53.06280653404291</v>
+        <v>325.0779328050626</v>
       </c>
       <c r="F4" t="n">
-        <v>53.06280653404291</v>
+        <v>325.0779328050626</v>
       </c>
       <c r="G4" t="n">
-        <v>53.06280653404291</v>
+        <v>325.0779328050626</v>
       </c>
       <c r="H4" t="n">
-        <v>53.06280653404291</v>
+        <v>169.8053574514753</v>
       </c>
       <c r="I4" t="n">
-        <v>53.06280653404291</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="J4" t="n">
-        <v>53.06280653404291</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="K4" t="n">
-        <v>141.0736281221829</v>
+        <v>141.0736281221826</v>
       </c>
       <c r="L4" t="n">
-        <v>309.2236132926287</v>
+        <v>309.223613292628</v>
       </c>
       <c r="M4" t="n">
-        <v>496.9033193817569</v>
+        <v>496.9033193817558</v>
       </c>
       <c r="N4" t="n">
-        <v>685.5550379667079</v>
+        <v>685.5550379667063</v>
       </c>
       <c r="O4" t="n">
-        <v>843.7891387308827</v>
+        <v>843.7891387308806</v>
       </c>
       <c r="P4" t="n">
-        <v>955.6650654913623</v>
+        <v>955.6650654913599</v>
       </c>
       <c r="Q4" t="n">
-        <v>955.6650654913623</v>
+        <v>955.6650654913599</v>
       </c>
       <c r="R4" t="n">
-        <v>820.039156434609</v>
+        <v>955.6650654913599</v>
       </c>
       <c r="S4" t="n">
-        <v>820.039156434609</v>
+        <v>955.6650654913599</v>
       </c>
       <c r="T4" t="n">
-        <v>820.039156434609</v>
+        <v>955.6650654913599</v>
       </c>
       <c r="U4" t="n">
-        <v>820.039156434609</v>
+        <v>955.6650654913599</v>
       </c>
       <c r="V4" t="n">
-        <v>820.039156434609</v>
+        <v>700.980577285473</v>
       </c>
       <c r="W4" t="n">
-        <v>820.039156434609</v>
+        <v>700.980577285473</v>
       </c>
       <c r="X4" t="n">
-        <v>592.0496055365917</v>
+        <v>472.9910263874557</v>
       </c>
       <c r="Y4" t="n">
-        <v>384.8279107766184</v>
+        <v>472.9910263874557</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>477.351327889106</v>
+        <v>1304.816264503924</v>
       </c>
       <c r="C5" t="n">
-        <v>477.351327889106</v>
+        <v>992.6726465545119</v>
       </c>
       <c r="D5" t="n">
-        <v>477.351327889106</v>
+        <v>992.6726465545119</v>
       </c>
       <c r="E5" t="n">
-        <v>477.351327889106</v>
+        <v>606.8843939562676</v>
       </c>
       <c r="F5" t="n">
-        <v>66.36542309949846</v>
+        <v>195.8984891666599</v>
       </c>
       <c r="G5" t="n">
-        <v>53.06280653404291</v>
+        <v>182.5958726012044</v>
       </c>
       <c r="H5" t="n">
-        <v>53.06280653404291</v>
+        <v>182.5958726012044</v>
       </c>
       <c r="I5" t="n">
-        <v>53.06280653404291</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="J5" t="n">
-        <v>220.4707231032598</v>
+        <v>53.0650740829062</v>
       </c>
       <c r="K5" t="n">
-        <v>592.1165982626352</v>
+        <v>103.8069907968277</v>
       </c>
       <c r="L5" t="n">
-        <v>691.9681947113966</v>
+        <v>366.1618311914675</v>
       </c>
       <c r="M5" t="n">
-        <v>1279.760170705548</v>
+        <v>953.953807185618</v>
       </c>
       <c r="N5" t="n">
-        <v>1536.624874323129</v>
+        <v>1536.624874323132</v>
       </c>
       <c r="O5" t="n">
-        <v>2041.637002584231</v>
+        <v>2041.637002584233</v>
       </c>
       <c r="P5" t="n">
-        <v>2434.978787279024</v>
+        <v>2434.978787279026</v>
       </c>
       <c r="Q5" t="n">
         <v>2653.140326702146</v>
@@ -4598,19 +4598,19 @@
         <v>2421.19001001093</v>
       </c>
       <c r="U5" t="n">
-        <v>2167.477887648698</v>
+        <v>2421.19001001093</v>
       </c>
       <c r="V5" t="n">
-        <v>1980.324913460234</v>
+        <v>2421.19001001093</v>
       </c>
       <c r="W5" t="n">
-        <v>1627.556258190119</v>
+        <v>2068.421354740816</v>
       </c>
       <c r="X5" t="n">
-        <v>1254.09049992904</v>
+        <v>1694.955596479736</v>
       </c>
       <c r="Y5" t="n">
-        <v>863.9511679532278</v>
+        <v>1304.816264503924</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>972.6418872394635</v>
+        <v>972.6418872394637</v>
       </c>
       <c r="C6" t="n">
-        <v>798.1888579583365</v>
+        <v>798.1888579583367</v>
       </c>
       <c r="D6" t="n">
-        <v>649.2544482970852</v>
+        <v>649.2544482970854</v>
       </c>
       <c r="E6" t="n">
-        <v>490.0169932916297</v>
+        <v>490.0169932916299</v>
       </c>
       <c r="F6" t="n">
-        <v>343.4824353185146</v>
+        <v>343.4824353185148</v>
       </c>
       <c r="G6" t="n">
-        <v>205.904472857545</v>
+        <v>205.9044728575452</v>
       </c>
       <c r="H6" t="n">
-        <v>103.6695663441832</v>
+        <v>103.6695663441834</v>
       </c>
       <c r="I6" t="n">
-        <v>53.06280653404291</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="J6" t="n">
-        <v>159.076435100624</v>
+        <v>159.0764351006237</v>
       </c>
       <c r="K6" t="n">
-        <v>466.8914550380428</v>
+        <v>466.8914550380419</v>
       </c>
       <c r="L6" t="n">
-        <v>942.1911323635632</v>
+        <v>942.1911323635616</v>
       </c>
       <c r="M6" t="n">
-        <v>1548.82265900529</v>
+        <v>1359.66783772069</v>
       </c>
       <c r="N6" t="n">
-        <v>2187.216930456235</v>
+        <v>1523.513158571518</v>
       </c>
       <c r="O6" t="n">
-        <v>2356.381659207181</v>
+        <v>2041.103518253644</v>
       </c>
       <c r="P6" t="n">
         <v>2439.512345793311</v>
@@ -4677,7 +4677,7 @@
         <v>2274.006260206441</v>
       </c>
       <c r="U6" t="n">
-        <v>2045.858488189962</v>
+        <v>2045.858488189963</v>
       </c>
       <c r="V6" t="n">
         <v>1810.70637995822</v>
@@ -4686,10 +4686,10 @@
         <v>1556.469023230018</v>
       </c>
       <c r="X6" t="n">
-        <v>1348.617523024485</v>
+        <v>1348.617523024486</v>
       </c>
       <c r="Y6" t="n">
-        <v>1140.857224259531</v>
+        <v>1140.857224259532</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>221.9989894619498</v>
+        <v>225.9218807834643</v>
       </c>
       <c r="C7" t="n">
-        <v>53.06280653404291</v>
+        <v>225.9218807834643</v>
       </c>
       <c r="D7" t="n">
-        <v>53.06280653404291</v>
+        <v>225.9218807834643</v>
       </c>
       <c r="E7" t="n">
-        <v>53.06280653404291</v>
+        <v>225.9218807834643</v>
       </c>
       <c r="F7" t="n">
-        <v>53.06280653404291</v>
+        <v>79.03193328555393</v>
       </c>
       <c r="G7" t="n">
-        <v>53.06280653404291</v>
+        <v>79.03193328555393</v>
       </c>
       <c r="H7" t="n">
-        <v>53.06280653404291</v>
+        <v>79.03193328555393</v>
       </c>
       <c r="I7" t="n">
-        <v>53.06280653404291</v>
+        <v>79.03193328555393</v>
       </c>
       <c r="J7" t="n">
-        <v>53.06280653404291</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="K7" t="n">
-        <v>141.0736281221829</v>
+        <v>141.0736281221826</v>
       </c>
       <c r="L7" t="n">
-        <v>309.2236132926287</v>
+        <v>309.223613292628</v>
       </c>
       <c r="M7" t="n">
-        <v>496.9033193817569</v>
+        <v>496.9033193817558</v>
       </c>
       <c r="N7" t="n">
-        <v>685.5550379667079</v>
+        <v>685.5550379667063</v>
       </c>
       <c r="O7" t="n">
-        <v>843.7891387308827</v>
+        <v>843.7891387308806</v>
       </c>
       <c r="P7" t="n">
-        <v>955.6650654913623</v>
+        <v>955.6650654913599</v>
       </c>
       <c r="Q7" t="n">
-        <v>949.5657006773694</v>
+        <v>949.5657006773667</v>
       </c>
       <c r="R7" t="n">
-        <v>949.5657006773694</v>
+        <v>813.9397916206134</v>
       </c>
       <c r="S7" t="n">
-        <v>949.5657006773694</v>
+        <v>696.7287670191736</v>
       </c>
       <c r="T7" t="n">
-        <v>925.4656077093841</v>
+        <v>696.7287670191736</v>
       </c>
       <c r="U7" t="n">
-        <v>925.4656077093841</v>
+        <v>407.570345613704</v>
       </c>
       <c r="V7" t="n">
-        <v>670.7811195034973</v>
+        <v>407.570345613704</v>
       </c>
       <c r="W7" t="n">
-        <v>670.7811195034973</v>
+        <v>407.570345613704</v>
       </c>
       <c r="X7" t="n">
-        <v>442.7915686054799</v>
+        <v>407.570345613704</v>
       </c>
       <c r="Y7" t="n">
-        <v>221.9989894619498</v>
+        <v>407.570345613704</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1709.805527792115</v>
+        <v>1273.277873480949</v>
       </c>
       <c r="C8" t="n">
-        <v>1340.843010851703</v>
+        <v>1273.277873480949</v>
       </c>
       <c r="D8" t="n">
-        <v>982.5773122449525</v>
+        <v>915.0121748741986</v>
       </c>
       <c r="E8" t="n">
-        <v>596.7890596467082</v>
+        <v>915.0121748741986</v>
       </c>
       <c r="F8" t="n">
-        <v>185.8031548571006</v>
+        <v>908.0666741249952</v>
       </c>
       <c r="G8" t="n">
-        <v>172.7557771339321</v>
+        <v>490.9788923614226</v>
       </c>
       <c r="H8" t="n">
         <v>172.7557771339321</v>
       </c>
       <c r="I8" t="n">
-        <v>53.06280653404291</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="J8" t="n">
-        <v>74.29705652742621</v>
+        <v>241.7027055477793</v>
       </c>
       <c r="K8" t="n">
-        <v>156.8602111020186</v>
+        <v>645.1698185678247</v>
       </c>
       <c r="L8" t="n">
-        <v>709.6734693482178</v>
+        <v>1197.983076814024</v>
       </c>
       <c r="M8" t="n">
-        <v>1341.39128033153</v>
+        <v>1384.682489639431</v>
       </c>
       <c r="N8" t="n">
-        <v>1968.698948391376</v>
+        <v>1579.016702531414</v>
       </c>
       <c r="O8" t="n">
-        <v>2507.421881431024</v>
+        <v>1978.649319587951</v>
       </c>
       <c r="P8" t="n">
-        <v>2618.15620668055</v>
+        <v>2407.964365927245</v>
       </c>
       <c r="Q8" t="n">
         <v>2653.140326702146</v>
@@ -4832,22 +4832,22 @@
         <v>2496.925289198974</v>
       </c>
       <c r="T8" t="n">
-        <v>2496.925289198974</v>
+        <v>2402.785700790997</v>
       </c>
       <c r="U8" t="n">
-        <v>2496.925289198974</v>
+        <v>2402.785700790997</v>
       </c>
       <c r="V8" t="n">
-        <v>2496.925289198974</v>
+        <v>2402.785700790997</v>
       </c>
       <c r="W8" t="n">
-        <v>2496.925289198974</v>
+        <v>2050.017045520883</v>
       </c>
       <c r="X8" t="n">
-        <v>2486.544699832048</v>
+        <v>2050.017045520883</v>
       </c>
       <c r="Y8" t="n">
-        <v>2096.405367856236</v>
+        <v>1659.877713545071</v>
       </c>
     </row>
     <row r="9">
@@ -4875,25 +4875,25 @@
         <v>199.8836413989218</v>
       </c>
       <c r="H9" t="n">
-        <v>98.96766354372642</v>
+        <v>98.96766354372643</v>
       </c>
       <c r="I9" t="n">
-        <v>53.06280653404291</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="J9" t="n">
         <v>171.7220583909386</v>
       </c>
       <c r="K9" t="n">
-        <v>239.3298780542956</v>
+        <v>501.1504626967484</v>
       </c>
       <c r="L9" t="n">
-        <v>592.0885395612756</v>
+        <v>1005.512002562867</v>
       </c>
       <c r="M9" t="n">
-        <v>1232.63388902838</v>
+        <v>1185.009338917472</v>
       </c>
       <c r="N9" t="n">
-        <v>1431.290630681045</v>
+        <v>1821.214326765007</v>
       </c>
       <c r="O9" t="n">
         <v>1980.726639433768</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>350.069393444289</v>
+        <v>684.7932577139517</v>
       </c>
       <c r="C10" t="n">
-        <v>350.069393444289</v>
+        <v>515.8570747860448</v>
       </c>
       <c r="D10" t="n">
-        <v>199.9527540319533</v>
+        <v>365.740435373709</v>
       </c>
       <c r="E10" t="n">
-        <v>199.9527540319533</v>
+        <v>217.8273417913159</v>
       </c>
       <c r="F10" t="n">
-        <v>53.06280653404291</v>
+        <v>70.93739429340553</v>
       </c>
       <c r="G10" t="n">
-        <v>53.06280653404291</v>
+        <v>70.93739429340553</v>
       </c>
       <c r="H10" t="n">
-        <v>53.06280653404291</v>
+        <v>70.93739429340553</v>
       </c>
       <c r="I10" t="n">
-        <v>53.06280653404291</v>
+        <v>70.93739429340553</v>
       </c>
       <c r="J10" t="n">
-        <v>53.06280653404291</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="K10" t="n">
         <v>154.1107361296527</v>
@@ -4996,16 +4996,16 @@
         <v>1052.997487993388</v>
       </c>
       <c r="V10" t="n">
-        <v>1052.997487993388</v>
+        <v>798.3129997875009</v>
       </c>
       <c r="W10" t="n">
-        <v>980.4999883160762</v>
+        <v>684.7932577139517</v>
       </c>
       <c r="X10" t="n">
-        <v>752.5104374180588</v>
+        <v>684.7932577139517</v>
       </c>
       <c r="Y10" t="n">
-        <v>531.7178582745287</v>
+        <v>684.7932577139517</v>
       </c>
     </row>
     <row r="11">
@@ -5030,28 +5030,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5130,7 +5130,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1057.955258982919</v>
+        <v>951.7772127656175</v>
       </c>
       <c r="C13" t="n">
-        <v>889.0190760550122</v>
+        <v>782.8410298377106</v>
       </c>
       <c r="D13" t="n">
-        <v>738.9024366426764</v>
+        <v>632.7243904253748</v>
       </c>
       <c r="E13" t="n">
-        <v>590.9893430602833</v>
+        <v>484.8112968429818</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429803</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2187.395141638037</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1898.319914982235</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1643.635426776348</v>
       </c>
       <c r="W13" t="n">
-        <v>1688.385853854706</v>
+        <v>1354.218256739387</v>
       </c>
       <c r="X13" t="n">
-        <v>1460.396302956689</v>
+        <v>1354.218256739387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1239.603723813159</v>
+        <v>1133.425677595857</v>
       </c>
     </row>
     <row r="14">
@@ -5273,10 +5273,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5364,10 +5364,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
         <v>1859.536823237711</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E16" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5473,13 +5473,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5477693179085</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5477693179085</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4311299055728</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5180363231797</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6280888252693</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5750,13 +5750,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048574</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925216</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>296.7882229101285</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>296.7882229101285</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>129.5921236250085</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6075,10 +6075,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1606.866663407555</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1317.449493370594</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1089.459942472577</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>868.6673633290469</v>
       </c>
     </row>
     <row r="26">
@@ -6239,13 +6239,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6373,10 +6373,10 @@
         <v>411.2214559580121</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384027</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6443,16 +6443,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6549,19 +6549,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D31" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6616,7 +6616,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
@@ -6625,7 +6625,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6652,16 +6652,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6789,10 +6789,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6856,10 +6856,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6889,7 +6889,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6917,7 +6917,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7126,19 +7126,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7245,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,7 +7327,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7336,7 +7336,7 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,7 +7351,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7360,19 +7360,19 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
         <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7734,19 +7734,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7786,16 +7786,16 @@
         <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7819,10 +7819,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7982,16 +7982,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>51.70284437392263</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>140.1019064655512</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8067,10 +8067,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>274.6395877049528</v>
       </c>
       <c r="O3" t="n">
-        <v>189.1595326381228</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>164.1446908544237</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>108.2495875231613</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8301,16 +8301,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>274.6395877049527</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>41.91723752806081</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>372.2766744673618</v>
+        <v>231.7814057975529</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8532,19 +8532,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>217.7061247386728</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>441.9679254493647</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22547,10 +22547,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22559,10 +22559,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.169590399801</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>317.6287092208523</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>145.380352874519</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>21.32631378309398</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>202.5399105326833</v>
       </c>
     </row>
     <row r="3">
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>11.10006917376489</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.038371165852979</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.4351755397212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>40.30478226780122</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23464,22 +23464,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>26.80843451460856</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>127.7255247667966</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>84.24553961896831</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>147.0213775686983</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>104.8770068749577</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>171.4336447811485</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1164761.446481315</v>
+        <v>1164761.446481316</v>
       </c>
     </row>
     <row r="3">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32460.91116143662</v>
+        <v>32460.91116143664</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321414</v>
+        <v>41052.08849321415</v>
       </c>
       <c r="D2" t="n">
         <v>41052.08849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>40357.32998450032</v>
+        <v>40357.32998450029</v>
       </c>
       <c r="F2" t="n">
         <v>40357.32998450031</v>
       </c>
       <c r="G2" t="n">
-        <v>40357.32998450029</v>
+        <v>40357.32998450031</v>
       </c>
       <c r="H2" t="n">
-        <v>40357.3299845003</v>
+        <v>40357.32998450031</v>
       </c>
       <c r="I2" t="n">
-        <v>40357.32998450031</v>
+        <v>40357.32998450032</v>
       </c>
       <c r="J2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="K2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321418</v>
       </c>
       <c r="L2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="M2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="N2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="O2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="P2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.08849321419</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>733594.7488743899</v>
+        <v>733594.7488743884</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>53830.54890403766</v>
+        <v>53830.54890403902</v>
       </c>
       <c r="E3" t="n">
-        <v>774337.7035887978</v>
+        <v>774337.7035887977</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>192972.2799035458</v>
+        <v>192972.2799035459</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="P3" t="n">
-        <v>4.831690603168681e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96029.7937319824</v>
+        <v>96029.79373198266</v>
       </c>
       <c r="C4" t="n">
-        <v>194101.0169589089</v>
+        <v>194101.0169589092</v>
       </c>
       <c r="D4" t="n">
         <v>183480.4543593025</v>
@@ -26427,37 +26427,37 @@
         <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695062</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695072</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695061</v>
       </c>
       <c r="J4" t="n">
-        <v>14278.33979478853</v>
+        <v>14278.33979478852</v>
       </c>
       <c r="K4" t="n">
-        <v>14278.33979478853</v>
+        <v>14278.33979478855</v>
       </c>
       <c r="L4" t="n">
         <v>14278.33979478853</v>
       </c>
       <c r="M4" t="n">
-        <v>14278.33979478855</v>
+        <v>14278.33979478852</v>
       </c>
       <c r="N4" t="n">
-        <v>14278.33979478855</v>
+        <v>14278.33979478858</v>
       </c>
       <c r="O4" t="n">
         <v>14278.33979478852</v>
       </c>
       <c r="P4" t="n">
-        <v>14278.33979478853</v>
+        <v>14278.33979478852</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85522.85648555038</v>
+        <v>85522.85648555035</v>
       </c>
       <c r="C5" t="n">
-        <v>85522.85648555038</v>
+        <v>85522.85648555035</v>
       </c>
       <c r="D5" t="n">
-        <v>86893.11195324242</v>
+        <v>86893.11195324243</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-882686.4879304861</v>
+        <v>-883116.0467970737</v>
       </c>
       <c r="C6" t="n">
-        <v>-238571.7849512452</v>
+        <v>-238571.7849512454</v>
       </c>
       <c r="D6" t="n">
-        <v>-283152.0267233684</v>
+        <v>-283152.0267233698</v>
       </c>
       <c r="E6" t="n">
-        <v>-841390.3839598997</v>
+        <v>-841425.1218853352</v>
       </c>
       <c r="F6" t="n">
-        <v>-67052.68037110187</v>
+        <v>-67087.41829653755</v>
       </c>
       <c r="G6" t="n">
-        <v>-67052.68037110187</v>
+        <v>-67087.41829653755</v>
       </c>
       <c r="H6" t="n">
-        <v>-67052.68037110189</v>
+        <v>-67087.41829653755</v>
       </c>
       <c r="I6" t="n">
-        <v>-67052.68037110186</v>
+        <v>-67087.41829653755</v>
       </c>
       <c r="J6" t="n">
-        <v>-269362.6470590355</v>
+        <v>-269362.6470590356</v>
       </c>
       <c r="K6" t="n">
-        <v>-76390.36715548973</v>
+        <v>-76390.36715548977</v>
       </c>
       <c r="L6" t="n">
         <v>-76390.36715548976</v>
@@ -26555,13 +26555,13 @@
         <v>-203340.6678892042</v>
       </c>
       <c r="N6" t="n">
-        <v>-76390.36715548977</v>
+        <v>-76390.3671554898</v>
       </c>
       <c r="O6" t="n">
-        <v>-95818.0851491215</v>
+        <v>-95818.08514912151</v>
       </c>
       <c r="P6" t="n">
-        <v>-76390.3671554898</v>
+        <v>-76390.36715548973</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>530.6203449393471</v>
+        <v>530.6203449393455</v>
       </c>
       <c r="C3" t="n">
-        <v>530.6203449393471</v>
+        <v>530.6203449393455</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>663.2850816755364</v>
+        <v>663.2850816755365</v>
       </c>
       <c r="C4" t="n">
-        <v>663.2850816755364</v>
+        <v>663.2850816755365</v>
       </c>
       <c r="D4" t="n">
-        <v>663.2850816755364</v>
+        <v>663.2850816755365</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>6.039613253960852e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>530.6203449393471</v>
+        <v>530.6203449393455</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>62.85575539871797</v>
+        <v>62.85575539871957</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>663.2850816755364</v>
+        <v>663.2850816755365</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>509.423206424112</v>
+        <v>509.4232064241119</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>663.2850816755362</v>
+        <v>663.2850816755365</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>509.423206424112</v>
+        <v>509.4232064241119</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>663.2850816755364</v>
+        <v>663.2850816755365</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>509.423206424112</v>
+        <v>509.4232064241119</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>192.4316842836625</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>145.7560741796296</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.7198496000514</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>126.6751945820229</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.7094354839957</v>
+        <v>25.7094354839959</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>6.038371165853221</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>134.2696499661859</v>
       </c>
       <c r="S4" t="n">
-        <v>207.3412012951898</v>
+        <v>207.3412012951899</v>
       </c>
       <c r="T4" t="n">
         <v>223.8572031639947</v>
@@ -27594,7 +27594,7 @@
         <v>286.2668371914149</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>56.25071000108932</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>317.6287092208522</v>
+        <v>317.6287092208523</v>
       </c>
       <c r="I5" t="n">
-        <v>128.2377354064896</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>160.4109796955705</v>
+        <v>160.4109796955706</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1750011386098</v>
       </c>
       <c r="V5" t="n">
-        <v>142.4708140235551</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.0341229987321</v>
@@ -27792,10 +27792,10 @@
         <v>153.7198496000514</v>
       </c>
       <c r="I7" t="n">
-        <v>126.6751945820229</v>
+        <v>126.675194582023</v>
       </c>
       <c r="J7" t="n">
-        <v>25.7094354839957</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>134.2696499661857</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>207.3412012951898</v>
+        <v>91.30228693976447</v>
       </c>
       <c r="T7" t="n">
-        <v>199.9981111256893</v>
+        <v>223.8572031639947</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2668371914149</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>119.4536705910687</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>359.4543172052128</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28032,7 +28032,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>214.7504736560525</v>
+        <v>174.1384536837773</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="29">
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.133147115334057</v>
+        <v>2.13314711533405</v>
       </c>
       <c r="H2" t="n">
-        <v>21.84609289491492</v>
+        <v>21.84609289491485</v>
       </c>
       <c r="I2" t="n">
-        <v>82.23815416391632</v>
+        <v>82.23815416391606</v>
       </c>
       <c r="J2" t="n">
-        <v>181.0481949800841</v>
+        <v>181.0481949800835</v>
       </c>
       <c r="K2" t="n">
-        <v>271.3443123721748</v>
+        <v>271.344312372174</v>
       </c>
       <c r="L2" t="n">
-        <v>336.6266134030795</v>
+        <v>336.6266134030785</v>
       </c>
       <c r="M2" t="n">
-        <v>374.5619684154015</v>
+        <v>374.5619684154004</v>
       </c>
       <c r="N2" t="n">
-        <v>380.6227726568445</v>
+        <v>380.6227726568433</v>
       </c>
       <c r="O2" t="n">
-        <v>359.4112910287414</v>
+        <v>359.4112910287403</v>
       </c>
       <c r="P2" t="n">
-        <v>306.7492216189318</v>
+        <v>306.7492216189309</v>
       </c>
       <c r="Q2" t="n">
-        <v>230.3558905510308</v>
+        <v>230.3558905510301</v>
       </c>
       <c r="R2" t="n">
-        <v>133.9963024836031</v>
+        <v>133.9963024836027</v>
       </c>
       <c r="S2" t="n">
-        <v>48.60908989067487</v>
+        <v>48.60908989067473</v>
       </c>
       <c r="T2" t="n">
-        <v>9.337851497374839</v>
+        <v>9.337851497374812</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1706517692267245</v>
+        <v>0.170651769226724</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.141334326850671</v>
+        <v>1.141334326850668</v>
       </c>
       <c r="H3" t="n">
-        <v>11.02288678826833</v>
+        <v>11.02288678826829</v>
       </c>
       <c r="I3" t="n">
-        <v>39.29594063937618</v>
+        <v>39.29594063937606</v>
       </c>
       <c r="J3" t="n">
-        <v>107.8310646258347</v>
+        <v>107.8310646258344</v>
       </c>
       <c r="K3" t="n">
-        <v>184.3004645248297</v>
+        <v>184.3004645248291</v>
       </c>
       <c r="L3" t="n">
-        <v>247.8147186436074</v>
+        <v>247.8147186436066</v>
       </c>
       <c r="M3" t="n">
-        <v>289.1880879919441</v>
+        <v>289.1880879919432</v>
       </c>
       <c r="N3" t="n">
-        <v>296.8420361750787</v>
+        <v>296.8420361750779</v>
       </c>
       <c r="O3" t="n">
-        <v>271.552470301177</v>
+        <v>271.5524703011762</v>
       </c>
       <c r="P3" t="n">
-        <v>217.9447979053707</v>
+        <v>217.9447979053701</v>
       </c>
       <c r="Q3" t="n">
-        <v>145.690325652026</v>
+        <v>145.6903256520256</v>
       </c>
       <c r="R3" t="n">
-        <v>70.86284531095662</v>
+        <v>70.8628453109564</v>
       </c>
       <c r="S3" t="n">
-        <v>21.19978453602013</v>
+        <v>21.19978453602006</v>
       </c>
       <c r="T3" t="n">
-        <v>4.600378273577923</v>
+        <v>4.600378273577909</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0750877846612284</v>
+        <v>0.07508778466122817</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9568563597266914</v>
+        <v>0.9568563597266885</v>
       </c>
       <c r="H4" t="n">
-        <v>8.507322907388225</v>
+        <v>8.5073229073882</v>
       </c>
       <c r="I4" t="n">
-        <v>28.77528034523542</v>
+        <v>28.77528034523533</v>
       </c>
       <c r="J4" t="n">
-        <v>67.64974463267707</v>
+        <v>67.64974463267687</v>
       </c>
       <c r="K4" t="n">
-        <v>111.1693116118828</v>
+        <v>111.1693116118825</v>
       </c>
       <c r="L4" t="n">
-        <v>142.258444608821</v>
+        <v>142.2584446088206</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9915837342485</v>
+        <v>149.9915837342481</v>
       </c>
       <c r="N4" t="n">
-        <v>146.4251191207219</v>
+        <v>146.4251191207214</v>
       </c>
       <c r="O4" t="n">
-        <v>135.2472971002782</v>
+        <v>135.2472971002778</v>
       </c>
       <c r="P4" t="n">
-        <v>115.7274273618536</v>
+        <v>115.7274273618533</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.12367208584141</v>
+        <v>80.12367208584116</v>
       </c>
       <c r="R4" t="n">
-        <v>43.02374141098377</v>
+        <v>43.02374141098364</v>
       </c>
       <c r="S4" t="n">
-        <v>16.67539674178242</v>
+        <v>16.67539674178238</v>
       </c>
       <c r="T4" t="n">
-        <v>4.088386264286771</v>
+        <v>4.088386264286759</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05219216507600141</v>
+        <v>0.05219216507600125</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.133147115334057</v>
+        <v>2.13314711533405</v>
       </c>
       <c r="H5" t="n">
-        <v>21.84609289491492</v>
+        <v>21.84609289491485</v>
       </c>
       <c r="I5" t="n">
-        <v>82.23815416391632</v>
+        <v>82.23815416391606</v>
       </c>
       <c r="J5" t="n">
-        <v>181.0481949800841</v>
+        <v>181.0481949800835</v>
       </c>
       <c r="K5" t="n">
-        <v>271.3443123721748</v>
+        <v>271.344312372174</v>
       </c>
       <c r="L5" t="n">
-        <v>336.6266134030795</v>
+        <v>336.6266134030785</v>
       </c>
       <c r="M5" t="n">
-        <v>374.5619684154015</v>
+        <v>374.5619684154004</v>
       </c>
       <c r="N5" t="n">
-        <v>380.6227726568445</v>
+        <v>380.6227726568433</v>
       </c>
       <c r="O5" t="n">
-        <v>359.4112910287414</v>
+        <v>359.4112910287403</v>
       </c>
       <c r="P5" t="n">
-        <v>306.7492216189318</v>
+        <v>306.7492216189309</v>
       </c>
       <c r="Q5" t="n">
-        <v>230.3558905510308</v>
+        <v>230.3558905510301</v>
       </c>
       <c r="R5" t="n">
-        <v>133.9963024836031</v>
+        <v>133.9963024836027</v>
       </c>
       <c r="S5" t="n">
-        <v>48.60908989067487</v>
+        <v>48.60908989067473</v>
       </c>
       <c r="T5" t="n">
-        <v>9.337851497374839</v>
+        <v>9.337851497374812</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1706517692267245</v>
+        <v>0.170651769226724</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.141334326850671</v>
+        <v>1.141334326850668</v>
       </c>
       <c r="H6" t="n">
-        <v>11.02288678826833</v>
+        <v>11.02288678826829</v>
       </c>
       <c r="I6" t="n">
-        <v>39.29594063937618</v>
+        <v>39.29594063937606</v>
       </c>
       <c r="J6" t="n">
-        <v>107.8310646258347</v>
+        <v>107.8310646258344</v>
       </c>
       <c r="K6" t="n">
-        <v>184.3004645248297</v>
+        <v>184.3004645248291</v>
       </c>
       <c r="L6" t="n">
-        <v>247.8147186436074</v>
+        <v>247.8147186436066</v>
       </c>
       <c r="M6" t="n">
-        <v>289.1880879919441</v>
+        <v>289.1880879919432</v>
       </c>
       <c r="N6" t="n">
-        <v>296.8420361750787</v>
+        <v>296.8420361750779</v>
       </c>
       <c r="O6" t="n">
-        <v>271.552470301177</v>
+        <v>271.5524703011762</v>
       </c>
       <c r="P6" t="n">
-        <v>217.9447979053707</v>
+        <v>217.9447979053701</v>
       </c>
       <c r="Q6" t="n">
-        <v>145.690325652026</v>
+        <v>145.6903256520256</v>
       </c>
       <c r="R6" t="n">
-        <v>70.86284531095662</v>
+        <v>70.8628453109564</v>
       </c>
       <c r="S6" t="n">
-        <v>21.19978453602013</v>
+        <v>21.19978453602006</v>
       </c>
       <c r="T6" t="n">
-        <v>4.600378273577923</v>
+        <v>4.600378273577909</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0750877846612284</v>
+        <v>0.07508778466122817</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9568563597266914</v>
+        <v>0.9568563597266885</v>
       </c>
       <c r="H7" t="n">
-        <v>8.507322907388225</v>
+        <v>8.5073229073882</v>
       </c>
       <c r="I7" t="n">
-        <v>28.77528034523542</v>
+        <v>28.77528034523533</v>
       </c>
       <c r="J7" t="n">
-        <v>67.64974463267707</v>
+        <v>67.64974463267687</v>
       </c>
       <c r="K7" t="n">
-        <v>111.1693116118828</v>
+        <v>111.1693116118825</v>
       </c>
       <c r="L7" t="n">
-        <v>142.258444608821</v>
+        <v>142.2584446088206</v>
       </c>
       <c r="M7" t="n">
-        <v>149.9915837342485</v>
+        <v>149.9915837342481</v>
       </c>
       <c r="N7" t="n">
-        <v>146.4251191207219</v>
+        <v>146.4251191207214</v>
       </c>
       <c r="O7" t="n">
-        <v>135.2472971002782</v>
+        <v>135.2472971002778</v>
       </c>
       <c r="P7" t="n">
-        <v>115.7274273618536</v>
+        <v>115.7274273618533</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.12367208584141</v>
+        <v>80.12367208584116</v>
       </c>
       <c r="R7" t="n">
-        <v>43.02374141098377</v>
+        <v>43.02374141098364</v>
       </c>
       <c r="S7" t="n">
-        <v>16.67539674178242</v>
+        <v>16.67539674178238</v>
       </c>
       <c r="T7" t="n">
-        <v>4.088386264286771</v>
+        <v>4.088386264286759</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05219216507600141</v>
+        <v>0.05219216507600125</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31850,10 +31850,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,13 +32321,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>320.9147064709964</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32795,13 +32795,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,19 +33032,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>340.4395077511235</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33509,13 +33509,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>604.7968300725072</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>461.1007071927452</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34375,7 +34375,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0989056254716</v>
+        <v>169.098905625471</v>
       </c>
       <c r="K2" t="n">
-        <v>375.399873898359</v>
+        <v>375.3998738983582</v>
       </c>
       <c r="L2" t="n">
-        <v>152.5630428070149</v>
+        <v>518.5214129835417</v>
       </c>
       <c r="M2" t="n">
-        <v>593.7292686809612</v>
+        <v>144.2157351881276</v>
       </c>
       <c r="N2" t="n">
-        <v>588.5566334722378</v>
+        <v>291.3116155258036</v>
       </c>
       <c r="O2" t="n">
-        <v>129.3130796070547</v>
+        <v>510.113260869799</v>
       </c>
       <c r="P2" t="n">
-        <v>397.3149340351449</v>
+        <v>397.314934035144</v>
       </c>
       <c r="Q2" t="n">
-        <v>220.365191336486</v>
+        <v>220.3651913364853</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>107.0844732995768</v>
+        <v>107.0844732995765</v>
       </c>
       <c r="K3" t="n">
-        <v>310.9242625630493</v>
+        <v>310.9242625630487</v>
       </c>
       <c r="L3" t="n">
-        <v>480.1006841671924</v>
+        <v>480.1006841671916</v>
       </c>
       <c r="M3" t="n">
-        <v>147.0540540699258</v>
+        <v>147.0540540699249</v>
       </c>
       <c r="N3" t="n">
-        <v>644.8426984352989</v>
+        <v>440.1399117966973</v>
       </c>
       <c r="O3" t="n">
-        <v>318.1157584948553</v>
+        <v>522.8185451334613</v>
       </c>
       <c r="P3" t="n">
-        <v>402.4331591309776</v>
+        <v>402.4331591309769</v>
       </c>
       <c r="Q3" t="n">
-        <v>215.7858393018536</v>
+        <v>215.7858393018532</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>88.89981978599999</v>
+        <v>88.89981978599965</v>
       </c>
       <c r="L4" t="n">
-        <v>169.8484698691372</v>
+        <v>169.8484698691367</v>
       </c>
       <c r="M4" t="n">
-        <v>189.5754606960891</v>
+        <v>189.5754606960887</v>
       </c>
       <c r="N4" t="n">
-        <v>190.5572914999505</v>
+        <v>190.55729149995</v>
       </c>
       <c r="O4" t="n">
-        <v>159.8324250143179</v>
+        <v>159.8324250143175</v>
       </c>
       <c r="P4" t="n">
-        <v>113.0059866267471</v>
+        <v>113.0059866267467</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0989056254716</v>
+        <v>0.002290453397250758</v>
       </c>
       <c r="K5" t="n">
-        <v>375.399873898359</v>
+        <v>51.25446132719344</v>
       </c>
       <c r="L5" t="n">
-        <v>100.8601984330923</v>
+        <v>265.004889287515</v>
       </c>
       <c r="M5" t="n">
-        <v>593.7292686809612</v>
+        <v>593.7292686809601</v>
       </c>
       <c r="N5" t="n">
-        <v>259.4592965834149</v>
+        <v>588.5566334722366</v>
       </c>
       <c r="O5" t="n">
-        <v>510.1132608698</v>
+        <v>510.113260869799</v>
       </c>
       <c r="P5" t="n">
-        <v>397.3149340351449</v>
+        <v>397.314934035144</v>
       </c>
       <c r="Q5" t="n">
-        <v>220.365191336486</v>
+        <v>220.3651913364853</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>107.0844732995768</v>
+        <v>107.0844732995765</v>
       </c>
       <c r="K6" t="n">
-        <v>310.9242625630493</v>
+        <v>310.9242625630487</v>
       </c>
       <c r="L6" t="n">
-        <v>480.1006841671924</v>
+        <v>480.1006841671916</v>
       </c>
       <c r="M6" t="n">
-        <v>612.7591178199257</v>
+        <v>421.6936417748776</v>
       </c>
       <c r="N6" t="n">
-        <v>644.8426984352989</v>
+        <v>165.5003240917445</v>
       </c>
       <c r="O6" t="n">
-        <v>170.8734633847934</v>
+        <v>522.8185451334613</v>
       </c>
       <c r="P6" t="n">
-        <v>83.97039049104046</v>
+        <v>402.4331591309769</v>
       </c>
       <c r="Q6" t="n">
-        <v>215.7858393018536</v>
+        <v>215.7858393018532</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>88.89981978599999</v>
+        <v>88.89981978599965</v>
       </c>
       <c r="L7" t="n">
-        <v>169.8484698691372</v>
+        <v>169.8484698691367</v>
       </c>
       <c r="M7" t="n">
-        <v>189.5754606960891</v>
+        <v>189.5754606960887</v>
       </c>
       <c r="N7" t="n">
-        <v>190.5572914999505</v>
+        <v>190.55729149995</v>
       </c>
       <c r="O7" t="n">
-        <v>159.8324250143179</v>
+        <v>159.8324250143175</v>
       </c>
       <c r="P7" t="n">
-        <v>113.0059866267471</v>
+        <v>113.0059866267467</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>544.1645788279269</v>
+        <v>403.6693101581181</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,19 +35252,19 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>356.3218803100809</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>642.6313008560967</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35422,7 +35422,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
@@ -35498,10 +35498,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>228.3679864663302</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35650,7 +35650,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
         <v>735.3001107902948</v>
@@ -35732,13 +35732,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,13 +35969,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>189.5729943876631</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36443,13 +36443,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,19 +36680,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>197.843263306679</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36759,13 +36759,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37157,13 +37157,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>462.2005856280628</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>318.5044627483008</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
